--- a/doc/Database Schema/Database schema.xlsx
+++ b/doc/Database Schema/Database schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pratik CDAC\Project\Online-Bidding-system-Group-19-Project\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pratik CDAC\Project\Online-Bidding-system-Group-19-Project\doc\Database Schema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A973C91-101A-442C-B157-AC7D9FE539B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A3BEF9-6C77-4385-B0E8-6C23564AD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -224,6 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,547 +516,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
